--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.045864666666667</v>
+        <v>3.015833333333333</v>
       </c>
       <c r="H2">
-        <v>3.137594</v>
+        <v>9.047499999999999</v>
       </c>
       <c r="I2">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572644</v>
       </c>
       <c r="J2">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572643</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N2">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O2">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P2">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q2">
-        <v>4.915047973431111</v>
+        <v>38.23834595777778</v>
       </c>
       <c r="R2">
-        <v>44.23543176088</v>
+        <v>344.14511362</v>
       </c>
       <c r="S2">
-        <v>0.01545241393898208</v>
+        <v>0.05307762829085753</v>
       </c>
       <c r="T2">
-        <v>0.01545241393898208</v>
+        <v>0.05307762829085754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.045864666666667</v>
+        <v>3.015833333333333</v>
       </c>
       <c r="H3">
-        <v>3.137594</v>
+        <v>9.047499999999999</v>
       </c>
       <c r="I3">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572644</v>
       </c>
       <c r="J3">
-        <v>0.01599546767026659</v>
+        <v>0.05376901095572643</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q3">
-        <v>0.1727325679957778</v>
+        <v>0.4980879963888889</v>
       </c>
       <c r="R3">
-        <v>1.554593111962</v>
+        <v>4.4827919675</v>
       </c>
       <c r="S3">
-        <v>0.0005430537312845083</v>
+        <v>0.0006913826648689027</v>
       </c>
       <c r="T3">
-        <v>0.0005430537312845083</v>
+        <v>0.0006913826648689026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>6.020107</v>
       </c>
       <c r="I4">
-        <v>0.03069053130839924</v>
+        <v>0.03577730856453667</v>
       </c>
       <c r="J4">
-        <v>0.03069053130839923</v>
+        <v>0.03577730856453666</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N4">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O4">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P4">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q4">
-        <v>9.430510993515558</v>
+        <v>25.44337487359378</v>
       </c>
       <c r="R4">
-        <v>84.87459894164</v>
+        <v>228.990373862344</v>
       </c>
       <c r="S4">
-        <v>0.02964857318090346</v>
+        <v>0.03531727014282283</v>
       </c>
       <c r="T4">
-        <v>0.02964857318090345</v>
+        <v>0.03531727014282283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>6.020107</v>
       </c>
       <c r="I5">
-        <v>0.03069053130839924</v>
+        <v>0.03577730856453667</v>
       </c>
       <c r="J5">
-        <v>0.03069053130839923</v>
+        <v>0.03577730856453666</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N5">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q5">
-        <v>0.3314222750678889</v>
+        <v>0.331422275067889</v>
       </c>
       <c r="R5">
         <v>2.982800475611</v>
       </c>
       <c r="S5">
-        <v>0.001041958127495778</v>
+        <v>0.0004600384217138366</v>
       </c>
       <c r="T5">
-        <v>0.001041958127495778</v>
+        <v>0.0004600384217138364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.506566</v>
+        <v>1.732509666666666</v>
       </c>
       <c r="H6">
-        <v>7.519698</v>
+        <v>5.197528999999999</v>
       </c>
       <c r="I6">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="J6">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N6">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O6">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P6">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q6">
-        <v>11.77962362744</v>
+        <v>21.96683194557422</v>
       </c>
       <c r="R6">
-        <v>106.01661264696</v>
+        <v>197.701487510168</v>
       </c>
       <c r="S6">
-        <v>0.03703394581712473</v>
+        <v>0.03049157361624232</v>
       </c>
       <c r="T6">
-        <v>0.03703394581712473</v>
+        <v>0.03049157361624233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.506566</v>
+        <v>1.732509666666666</v>
       </c>
       <c r="H7">
-        <v>7.519698</v>
+        <v>5.197528999999999</v>
       </c>
       <c r="I7">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="J7">
-        <v>0.03833545265868316</v>
+        <v>0.03088875310789786</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N7">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q7">
-        <v>0.4139785919059999</v>
+        <v>0.2861372540241111</v>
       </c>
       <c r="R7">
-        <v>3.725807327154</v>
+        <v>2.575235286217</v>
       </c>
       <c r="S7">
-        <v>0.001301506841558421</v>
+        <v>0.0003971794916555294</v>
       </c>
       <c r="T7">
-        <v>0.001301506841558421</v>
+        <v>0.0003971794916555294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.82593033333333</v>
+        <v>49.33364366666667</v>
       </c>
       <c r="H8">
-        <v>179.477791</v>
+        <v>148.000931</v>
       </c>
       <c r="I8">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="J8">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N8">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O8">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P8">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q8">
-        <v>281.1523584410356</v>
+        <v>625.5110032220169</v>
       </c>
       <c r="R8">
-        <v>2530.37122596932</v>
+        <v>5629.599028998153</v>
       </c>
       <c r="S8">
-        <v>0.8839145916858946</v>
+        <v>0.8682551425608017</v>
       </c>
       <c r="T8">
-        <v>0.8839145916858945</v>
+        <v>0.8682551425608019</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.82593033333333</v>
+        <v>49.33364366666667</v>
       </c>
       <c r="H9">
-        <v>179.477791</v>
+        <v>148.000931</v>
       </c>
       <c r="I9">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="J9">
-        <v>0.914978548362651</v>
+        <v>0.879564927371839</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N9">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q9">
-        <v>9.880711060015887</v>
+        <v>8.147829476151445</v>
       </c>
       <c r="R9">
-        <v>88.92639954014298</v>
+        <v>73.330465285363</v>
       </c>
       <c r="S9">
-        <v>0.0310639566767565</v>
+        <v>0.01130978481103715</v>
       </c>
       <c r="T9">
-        <v>0.0310639566767565</v>
+        <v>0.01130978481103715</v>
       </c>
     </row>
   </sheetData>
